--- a/test/s2t/s2t_21_mysql_csv_match.xlsx
+++ b/test/s2t/s2t_21_mysql_csv_match.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\s2t\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0183380-D691-44CA-96B5-E122D4530013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB783AF-112F-43C8-A364-ECAB5755D862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{60D25328-0517-4E51-B966-9D3337769260}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="20490" windowHeight="10800" xr2:uid="{60D25328-0517-4E51-B966-9D3337769260}"/>
   </bookViews>
   <sheets>
     <sheet name="MappingConfiguration" sheetId="1" r:id="rId1"/>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E28631E-9A8B-4B40-8EC8-AD01C3B31856}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1030,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1038,7 +1038,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1124,7 +1124,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
